--- a/Documents/Project Management/Change Management/Change Management.xlsx
+++ b/Documents/Project Management/Change Management/Change Management.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP_WhitePinnacle\Newly updated docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\hsemr\Documents\Project Management\Change Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18200" windowHeight="8390"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines for Schedule Metrics" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Change Management Approach</t>
   </si>
@@ -128,7 +128,110 @@
     <t>New input range for vital signs</t>
   </si>
   <si>
-    <t>New input change for vital signs as previous vital signs seem unrealistic.</t>
+    <t>New input range for vital signs as per client's request</t>
+  </si>
+  <si>
+    <t>Include intake and output history</t>
+  </si>
+  <si>
+    <t>Student needs to view the history of intake and output and monitor it as part of the coursework.</t>
+  </si>
+  <si>
+    <t>•Include new link to a reveal modal that shows the intake and output history respectively</t>
+  </si>
+  <si>
+    <t>Reset case by lecturer. After resetting the case, the Lecturer should still be able to export student's work.</t>
+  </si>
+  <si>
+    <t>Lecturer needs to review student's work even after the case has been reset to it's initial values as some of the classes are graded.</t>
+  </si>
+  <si>
+    <t>• Include additional button "reset" in the lecturer's portal
+• Include new vital_history table in the database to store the history of student's inputs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All clinical charts should be combined except for temperature chart. Temperature chart should be above as a separate chart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a change based on the UT results. Students commented that in the real clinical industry, the charts are combined. Client agreed and requested the change. </t>
+  </si>
+  <si>
+    <t>• Include additional button to show "All Charts" with the combined charts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication table should be dynamically displayed according to the states activated before. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student should be able to view all previous medications that the patient has been ordered for, by the doctor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loop through state_history table to check what states have been activated, show those medications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication should not be shown if medicine has been discontinued. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student should know what medication has been discontinued and should not allow them to administer. Previous cases did not have this and hence was not brought up by the client. </t>
+  </si>
+  <si>
+    <t>• Include new column in medication_prescription and prescription table to determine the medicine should be discontinued in which state</t>
+  </si>
+  <si>
+    <t>iOS mobile application changed to responsive web application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A responsive web application will be able to cater to more devices. </t>
+  </si>
+  <si>
+    <t>• Use foundation zurb to make the web pages to be responsive. Certain functions should not be available in the responsive web application.</t>
+  </si>
+  <si>
+    <t>PDF recognition case setup</t>
+  </si>
+  <si>
+    <t>The PDF recognition will ease the case setup as case setup is a cumbersome process.</t>
+  </si>
+  <si>
+    <t>Medication in viewPatientInformation should have date time</t>
+  </si>
+  <si>
+    <t>Date and time is critical for nurses to know when and what time they should administer the medicine</t>
+  </si>
+  <si>
+    <t>• Include additional column to display date and time</t>
+  </si>
+  <si>
+    <t>Validate that systolic BP is more than diastolic</t>
+  </si>
+  <si>
+    <t>Systolic is always higher than diastolic</t>
+  </si>
+  <si>
+    <t>• Include if else checks to validate</t>
+  </si>
+  <si>
+    <t>Input &amp; Output charts to indicate that it is "ml" and Input change to Intake</t>
+  </si>
+  <si>
+    <t>The word Input displayed is wrong</t>
+  </si>
+  <si>
+    <t>• Minor display codes changed</t>
+  </si>
+  <si>
+    <t>Medication history to cahnge to medicine name instaed of barcode</t>
+  </si>
+  <si>
+    <t>It is hard to tell which medicine from the barcode</t>
+  </si>
+  <si>
+    <t>Doctor's order to be optional for creation of medicine</t>
+  </si>
+  <si>
+    <t>Not every case has doctor's order, hence it is optional field not mandatory</t>
+  </si>
+  <si>
+    <t>• Edited the jsp page and removed the required</t>
   </si>
 </sst>
 </file>
@@ -340,7 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1674,8 +1780,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="167853"/>
-          <a:ext cx="1237521" cy="1751866"/>
+          <a:off x="0" y="407389"/>
+          <a:ext cx="1222623" cy="1767311"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1740,8 +1846,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="36246" y="204099"/>
-        <a:ext cx="1165029" cy="1679374"/>
+        <a:off x="35809" y="443198"/>
+        <a:ext cx="1151005" cy="1695693"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7383E5F1-E46D-4A8A-9C8D-8C4E838E1E9C}">
@@ -1750,9 +1856,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="88942">
-          <a:off x="1357466" y="912742"/>
-          <a:ext cx="254460" cy="306905"/>
+        <a:xfrm rot="90819">
+          <a:off x="1341122" y="1162045"/>
+          <a:ext cx="251400" cy="303210"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -1811,8 +1917,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1357479" y="973136"/>
-        <a:ext cx="178122" cy="184143"/>
+        <a:off x="1341135" y="1221691"/>
+        <a:ext cx="175980" cy="181926"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8F98203C-C3C6-4DFF-A432-CF54F72ED0CB}">
@@ -1822,8 +1928,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1717473" y="212298"/>
-          <a:ext cx="1237521" cy="1751866"/>
+          <a:off x="1696797" y="452225"/>
+          <a:ext cx="1222623" cy="1767311"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1888,8 +1994,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1753719" y="248544"/>
-        <a:ext cx="1165029" cy="1679374"/>
+        <a:off x="1732606" y="488034"/>
+        <a:ext cx="1151005" cy="1695693"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{88F436ED-9031-425A-8905-0DC56E016AF6}">
@@ -1899,8 +2005,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3083509" y="934778"/>
-          <a:ext cx="272449" cy="306905"/>
+          <a:off x="3046387" y="1184276"/>
+          <a:ext cx="269169" cy="303210"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -1959,8 +2065,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3083509" y="996159"/>
-        <a:ext cx="190714" cy="184143"/>
+        <a:off x="3046387" y="1244918"/>
+        <a:ext cx="188418" cy="181926"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{25D4A12C-2824-440D-8C98-9C005166FA8C}">
@@ -1970,8 +2076,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3469051" y="212298"/>
-          <a:ext cx="1237521" cy="1751866"/>
+          <a:off x="3427288" y="452225"/>
+          <a:ext cx="1222623" cy="1767311"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2047,8 +2153,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3505297" y="248544"/>
-        <a:ext cx="1165029" cy="1679374"/>
+        <a:off x="3463097" y="488034"/>
+        <a:ext cx="1151005" cy="1695693"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4206EB23-BA9D-486A-A820-B0992BE60F56}">
@@ -2057,9 +2163,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="21561796">
-          <a:off x="4825555" y="925178"/>
-          <a:ext cx="252274" cy="306905"/>
+        <a:xfrm rot="21560990">
+          <a:off x="4767461" y="1174590"/>
+          <a:ext cx="249238" cy="303210"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2118,8 +2224,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4825557" y="986980"/>
-        <a:ext cx="176592" cy="184143"/>
+        <a:off x="4767463" y="1235656"/>
+        <a:ext cx="174467" cy="181926"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F1AE66EA-13D7-4148-9DAD-F1D82A15A459}">
@@ -2129,8 +2235,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5182533" y="193255"/>
-          <a:ext cx="1237521" cy="1751866"/>
+          <a:off x="5120142" y="433015"/>
+          <a:ext cx="1222623" cy="1767311"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2195,8 +2301,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5218779" y="229501"/>
-        <a:ext cx="1165029" cy="1679374"/>
+        <a:off x="5155951" y="468824"/>
+        <a:ext cx="1151005" cy="1695693"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C52C19BA-A0BE-4030-9AB9-1F8E4BB71260}">
@@ -2205,9 +2311,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="21547881">
-          <a:off x="6529506" y="902935"/>
-          <a:ext cx="232092" cy="306905"/>
+        <a:xfrm rot="21546781">
+          <a:off x="6450898" y="1152152"/>
+          <a:ext cx="229299" cy="303210"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2264,8 +2370,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6529510" y="964844"/>
-        <a:ext cx="162464" cy="184143"/>
+        <a:off x="6450902" y="1213326"/>
+        <a:ext cx="160509" cy="181926"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{996335C0-E8ED-4EAC-91C4-AA73B642A7BB}">
@@ -2275,8 +2381,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6857914" y="167853"/>
-          <a:ext cx="1237521" cy="1751866"/>
+          <a:off x="6775353" y="407389"/>
+          <a:ext cx="1222623" cy="1767311"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2341,8 +2447,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6894160" y="204099"/>
-        <a:ext cx="1165029" cy="1679374"/>
+        <a:off x="6811162" y="443198"/>
+        <a:ext cx="1151005" cy="1695693"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3908,38 +4014,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="94" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="14.1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>0</v>
       </c>
@@ -3950,7 +4056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -3961,7 +4067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -3972,7 +4078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -3995,29 +4101,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K6"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="10"/>
-    <col min="2" max="2" width="8.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" style="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
@@ -4031,7 +4137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
@@ -4063,7 +4169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="108.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="149.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11">
         <v>4</v>
       </c>
@@ -4093,7 +4199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="81.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>6</v>
       </c>
@@ -4119,9 +4225,11 @@
       <c r="J4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12">
         <v>6</v>
       </c>
@@ -4145,19 +4253,331 @@
       <c r="J5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+    <row r="6" spans="2:11" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="12">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16">
+        <v>42019</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="198.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16">
+        <v>42019</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="13">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16">
+        <v>42025</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42032</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="13">
+        <v>3</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16">
+        <v>42032</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="182.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16">
+        <v>42088</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="13">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16">
+        <v>42088</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="13">
+        <v>3</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="13">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20">
+        <v>42088</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="13">
+        <v>12</v>
+      </c>
+      <c r="C16" s="20">
+        <v>42088</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="13">
+        <v>12</v>
+      </c>
+      <c r="C17" s="20">
+        <v>42088</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
